--- a/DK Salary Optimization Sheets/DKSalaries_11172014_optimization.xlsx
+++ b/DK Salary Optimization Sheets/DKSalaries_11172014_optimization.xlsx
@@ -92,7 +92,7 @@
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">300</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="500">
   <si>
     <t>Position</t>
   </si>
@@ -2509,7 +2509,7 @@
   <dimension ref="A1:Z300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="U1" s="2">
         <f>SUM(K2:K230)</f>
-        <v>267.39301962439299</v>
+        <v>269.37964193643393</v>
       </c>
       <c r="V1" t="s">
         <v>15</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="W3">
         <f>SUM(O:O)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="s">
         <v>49</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="W4">
         <f>SUM(P:P)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="s">
         <v>52</v>
@@ -2942,6 +2942,12 @@
         <f>SUM(Q:Q)</f>
         <v>1</v>
       </c>
+      <c r="Y5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
@@ -3009,6 +3015,12 @@
       <c r="R6">
         <f t="shared" si="5"/>
         <v>3.8769296480132369</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
@@ -3972,15 +3984,15 @@
         <v>38.973663776549103</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>38.973663776549103</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f t="shared" si="6"/>
@@ -4000,7 +4012,7 @@
       </c>
       <c r="Q20">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <f t="shared" si="5"/>
@@ -4584,15 +4596,15 @@
         <v>37.595152075406503</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>37.595152075406503</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="M29">
         <f t="shared" si="7"/>
@@ -4600,7 +4612,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
@@ -5944,15 +5956,15 @@
         <v>34.096032745804301</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34.096032745804301</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="M49">
         <f t="shared" si="9"/>
@@ -5972,7 +5984,7 @@
       </c>
       <c r="Q49">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <f t="shared" si="5"/>
@@ -6828,15 +6840,15 @@
         <v>28.1989641760895</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <f t="shared" si="4"/>
-        <v>28.1989641760895</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <f t="shared" ref="M62:Q71" si="11">$J62*IF($A62=M$1,1,0)</f>
@@ -6852,7 +6864,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <f t="shared" si="11"/>
@@ -7301,7 +7313,7 @@
       </c>
       <c r="I69" s="4">
         <f t="shared" si="14"/>
-        <v>28.2473814590366</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -7336,7 +7348,7 @@
       </c>
       <c r="R69">
         <f t="shared" si="16"/>
-        <v>5.6494762918073205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.45">
@@ -7712,15 +7724,15 @@
         <v>23.236481133231599</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>23.236481133231599</v>
       </c>
       <c r="L75">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="M75">
         <f t="shared" si="17"/>
@@ -7732,7 +7744,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <f t="shared" si="17"/>
@@ -8185,18 +8197,18 @@
       </c>
       <c r="I82" s="4">
         <f t="shared" si="14"/>
-        <v>25.238527071563801</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <f t="shared" si="15"/>
-        <v>25.238527071563801</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <f t="shared" si="12"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82:Q91" si="18">$J82*IF($A82=M$1,1,0)</f>
@@ -8204,7 +8216,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82">
         <f t="shared" si="18"/>
@@ -8220,7 +8232,7 @@
       </c>
       <c r="R82">
         <f t="shared" si="16"/>
-        <v>5.6085615714586226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.45">
@@ -10296,15 +10308,15 @@
         <v>19.649082815280401</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <f t="shared" si="15"/>
-        <v>19.649082815280401</v>
+        <v>0</v>
       </c>
       <c r="L113">
         <f t="shared" si="12"/>
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <f t="shared" si="21"/>
@@ -10320,7 +10332,7 @@
       </c>
       <c r="P113">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
         <f t="shared" si="21"/>
@@ -13121,19 +13133,19 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="C155" s="10">
         <v>3000</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E155" s="10">
-        <v>2.375</v>
+        <v>22.178999999999998</v>
       </c>
       <c r="F155">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D155,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D155,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13141,26 +13153,26 @@
       </c>
       <c r="G155">
         <f t="shared" si="24"/>
-        <v>2.375</v>
+        <v>22.178999999999998</v>
       </c>
       <c r="H155">
         <f>IF(ISNA(VLOOKUP(B155,Model!A:B,2,FALSE)),0,VLOOKUP(B155,Model!A:B,2,FALSE))</f>
-        <v>2.7708333333333299</v>
+        <v>19.119194197081299</v>
       </c>
       <c r="I155" s="4">
         <f t="shared" si="25"/>
-        <v>2.7708333333333299</v>
+        <v>19.119194197081299</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>19.119194197081299</v>
       </c>
       <c r="L155">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="M155">
         <f t="shared" si="30"/>
@@ -13176,7 +13188,7 @@
       </c>
       <c r="P155">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q155">
         <f t="shared" si="30"/>
@@ -13184,7 +13196,7 @@
       </c>
       <c r="R155">
         <f t="shared" si="27"/>
-        <v>0.92361111111110994</v>
+        <v>6.373064732360433</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.45">
@@ -13192,16 +13204,16 @@
         <v>9</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="C156" s="10">
         <v>3000</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E156" s="10">
-        <v>5.1790000000000003</v>
+        <v>2.375</v>
       </c>
       <c r="F156">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D156,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D156,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13209,15 +13221,15 @@
       </c>
       <c r="G156">
         <f t="shared" si="24"/>
-        <v>5.1790000000000003</v>
+        <v>2.375</v>
       </c>
       <c r="H156">
         <f>IF(ISNA(VLOOKUP(B156,Model!A:B,2,FALSE)),0,VLOOKUP(B156,Model!A:B,2,FALSE))</f>
-        <v>5.7746559648411999</v>
+        <v>2.7708333333333299</v>
       </c>
       <c r="I156" s="4">
         <f t="shared" si="25"/>
-        <v>5.7746559648411999</v>
+        <v>2.7708333333333299</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -13252,15 +13264,15 @@
       </c>
       <c r="R156">
         <f t="shared" si="27"/>
-        <v>1.9248853216137334</v>
+        <v>0.92361111111110994</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A157" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C157" s="10">
         <v>3000</v>
@@ -13269,7 +13281,7 @@
         <v>334</v>
       </c>
       <c r="E157" s="10">
-        <v>13.875</v>
+        <v>5.1790000000000003</v>
       </c>
       <c r="F157">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D157,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D157,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13277,15 +13289,15 @@
       </c>
       <c r="G157">
         <f t="shared" si="24"/>
-        <v>13.875</v>
+        <v>5.1790000000000003</v>
       </c>
       <c r="H157">
         <f>IF(ISNA(VLOOKUP(B157,Model!A:B,2,FALSE)),0,VLOOKUP(B157,Model!A:B,2,FALSE))</f>
-        <v>16.572150249820201</v>
+        <v>5.7746559648411999</v>
       </c>
       <c r="I157" s="4">
         <f t="shared" si="25"/>
-        <v>16.572150249820201</v>
+        <v>5.7746559648411999</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -13320,15 +13332,15 @@
       </c>
       <c r="R157">
         <f t="shared" si="27"/>
-        <v>5.5240500832734005</v>
+        <v>1.9248853216137334</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A158" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C158" s="10">
         <v>3000</v>
@@ -13337,7 +13349,7 @@
         <v>334</v>
       </c>
       <c r="E158" s="10">
-        <v>10.278</v>
+        <v>13.875</v>
       </c>
       <c r="F158">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D158,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D158,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13345,15 +13357,15 @@
       </c>
       <c r="G158">
         <f t="shared" si="24"/>
-        <v>10.278</v>
+        <v>13.875</v>
       </c>
       <c r="H158">
         <f>IF(ISNA(VLOOKUP(B158,Model!A:B,2,FALSE)),0,VLOOKUP(B158,Model!A:B,2,FALSE))</f>
-        <v>5.5682649764656498</v>
+        <v>16.572150249820201</v>
       </c>
       <c r="I158" s="4">
         <f t="shared" si="25"/>
-        <v>5.5682649764656498</v>
+        <v>16.572150249820201</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -13388,24 +13400,24 @@
       </c>
       <c r="R158">
         <f t="shared" si="27"/>
-        <v>1.8560883254885499</v>
+        <v>5.5240500832734005</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c r="C159" s="10">
         <v>3000</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E159" s="10">
-        <v>5.2779999999999996</v>
+        <v>10.278</v>
       </c>
       <c r="F159">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D159,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D159,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13413,15 +13425,15 @@
       </c>
       <c r="G159">
         <f t="shared" si="24"/>
-        <v>5.2779999999999996</v>
+        <v>10.278</v>
       </c>
       <c r="H159">
         <f>IF(ISNA(VLOOKUP(B159,Model!A:B,2,FALSE)),0,VLOOKUP(B159,Model!A:B,2,FALSE))</f>
-        <v>4.68818854929998</v>
+        <v>5.5682649764656498</v>
       </c>
       <c r="I159" s="4">
         <f t="shared" si="25"/>
-        <v>4.68818854929998</v>
+        <v>5.5682649764656498</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -13456,7 +13468,7 @@
       </c>
       <c r="R159">
         <f t="shared" si="27"/>
-        <v>1.5627295164333266</v>
+        <v>1.8560883254885499</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.45">
@@ -13464,16 +13476,16 @@
         <v>6</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C160" s="10">
         <v>3000</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E160" s="10">
-        <v>6</v>
+        <v>5.2779999999999996</v>
       </c>
       <c r="F160">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D160,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D160,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13481,15 +13493,15 @@
       </c>
       <c r="G160">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>5.2779999999999996</v>
       </c>
       <c r="H160">
         <f>IF(ISNA(VLOOKUP(B160,Model!A:B,2,FALSE)),0,VLOOKUP(B160,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>4.68818854929998</v>
       </c>
       <c r="I160" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4.68818854929998</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -13524,24 +13536,24 @@
       </c>
       <c r="R160">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1.5627295164333266</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="C161" s="10">
         <v>3000</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E161" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F161">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D161,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D161,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13549,7 +13561,7 @@
       </c>
       <c r="G161">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H161">
         <f>IF(ISNA(VLOOKUP(B161,Model!A:B,2,FALSE)),0,VLOOKUP(B161,Model!A:B,2,FALSE))</f>
@@ -13597,10 +13609,10 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A162" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>381</v>
+        <v>165</v>
       </c>
       <c r="C162" s="10">
         <v>3000</v>
@@ -13609,7 +13621,7 @@
         <v>329</v>
       </c>
       <c r="E162" s="10">
-        <v>9.7219999999999995</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D162,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D162,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13617,15 +13629,15 @@
       </c>
       <c r="G162">
         <f t="shared" si="24"/>
-        <v>9.7219999999999995</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <f>IF(ISNA(VLOOKUP(B162,Model!A:B,2,FALSE)),0,VLOOKUP(B162,Model!A:B,2,FALSE))</f>
-        <v>7.10569627745818</v>
+        <v>0</v>
       </c>
       <c r="I162" s="4">
         <f t="shared" si="25"/>
-        <v>7.10569627745818</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -13660,15 +13672,15 @@
       </c>
       <c r="R162">
         <f t="shared" si="27"/>
-        <v>2.3685654258193933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="C163" s="10">
         <v>3000</v>
@@ -13677,7 +13689,7 @@
         <v>329</v>
       </c>
       <c r="E163" s="10">
-        <v>8.25</v>
+        <v>9.7219999999999995</v>
       </c>
       <c r="F163">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D163,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D163,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13685,15 +13697,15 @@
       </c>
       <c r="G163">
         <f t="shared" si="24"/>
-        <v>8.25</v>
+        <v>9.7219999999999995</v>
       </c>
       <c r="H163">
         <f>IF(ISNA(VLOOKUP(B163,Model!A:B,2,FALSE)),0,VLOOKUP(B163,Model!A:B,2,FALSE))</f>
-        <v>6.7048311650343502</v>
+        <v>7.10569627745818</v>
       </c>
       <c r="I163" s="4">
         <f t="shared" si="25"/>
-        <v>6.7048311650343502</v>
+        <v>7.10569627745818</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -13728,24 +13740,24 @@
       </c>
       <c r="R163">
         <f t="shared" si="27"/>
-        <v>2.2349437216781167</v>
+        <v>2.3685654258193933</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A164" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
       <c r="C164" s="10">
         <v>3000</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E164" s="10">
-        <v>10.708</v>
+        <v>8.25</v>
       </c>
       <c r="F164">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D164,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D164,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13753,15 +13765,15 @@
       </c>
       <c r="G164">
         <f t="shared" si="24"/>
-        <v>10.708</v>
+        <v>8.25</v>
       </c>
       <c r="H164">
         <f>IF(ISNA(VLOOKUP(B164,Model!A:B,2,FALSE)),0,VLOOKUP(B164,Model!A:B,2,FALSE))</f>
-        <v>9.7860258370579398</v>
+        <v>6.7048311650343502</v>
       </c>
       <c r="I164" s="4">
         <f t="shared" si="25"/>
-        <v>9.7860258370579398</v>
+        <v>6.7048311650343502</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -13796,7 +13808,7 @@
       </c>
       <c r="R164">
         <f t="shared" si="27"/>
-        <v>3.2620086123526466</v>
+        <v>2.2349437216781167</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.45">
@@ -13804,16 +13816,16 @@
         <v>8</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="C165" s="10">
         <v>3000</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E165" s="10">
-        <v>1.6879999999999999</v>
+        <v>10.708</v>
       </c>
       <c r="F165">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D165,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D165,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13821,15 +13833,15 @@
       </c>
       <c r="G165">
         <f t="shared" si="24"/>
-        <v>1.6879999999999999</v>
+        <v>10.708</v>
       </c>
       <c r="H165">
         <f>IF(ISNA(VLOOKUP(B165,Model!A:B,2,FALSE)),0,VLOOKUP(B165,Model!A:B,2,FALSE))</f>
-        <v>1.45974099099099</v>
+        <v>9.7860258370579398</v>
       </c>
       <c r="I165" s="4">
         <f t="shared" si="25"/>
-        <v>1.45974099099099</v>
+        <v>9.7860258370579398</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -13864,24 +13876,24 @@
       </c>
       <c r="R165">
         <f t="shared" si="27"/>
-        <v>0.48658033033032999</v>
+        <v>3.2620086123526466</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A166" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="C166" s="10">
         <v>3000</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E166" s="10">
-        <v>5.375</v>
+        <v>1.6879999999999999</v>
       </c>
       <c r="F166">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D166,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D166,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13889,15 +13901,15 @@
       </c>
       <c r="G166">
         <f t="shared" si="24"/>
-        <v>5.375</v>
+        <v>1.6879999999999999</v>
       </c>
       <c r="H166">
         <f>IF(ISNA(VLOOKUP(B166,Model!A:B,2,FALSE)),0,VLOOKUP(B166,Model!A:B,2,FALSE))</f>
-        <v>5.9375</v>
+        <v>1.45974099099099</v>
       </c>
       <c r="I166" s="4">
         <f t="shared" si="25"/>
-        <v>5.9375</v>
+        <v>1.45974099099099</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -13932,24 +13944,24 @@
       </c>
       <c r="R166">
         <f t="shared" si="27"/>
-        <v>1.9791666666666667</v>
+        <v>0.48658033033032999</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="C167" s="10">
         <v>3000</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E167" s="10">
-        <v>2</v>
+        <v>5.375</v>
       </c>
       <c r="F167">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D167,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D167,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -13957,15 +13969,15 @@
       </c>
       <c r="G167">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>5.375</v>
       </c>
       <c r="H167">
         <f>IF(ISNA(VLOOKUP(B167,Model!A:B,2,FALSE)),0,VLOOKUP(B167,Model!A:B,2,FALSE))</f>
-        <v>0.87962286215465502</v>
+        <v>5.9375</v>
       </c>
       <c r="I167" s="4">
         <f t="shared" si="25"/>
-        <v>0.87962286215465502</v>
+        <v>5.9375</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -14000,24 +14012,24 @@
       </c>
       <c r="R167">
         <f t="shared" si="27"/>
-        <v>0.29320762071821832</v>
+        <v>1.9791666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168" s="10">
         <v>3000</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E168" s="10">
-        <v>10.843999999999999</v>
+        <v>2</v>
       </c>
       <c r="F168">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D168,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D168,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14025,15 +14037,15 @@
       </c>
       <c r="G168">
         <f t="shared" si="24"/>
-        <v>10.843999999999999</v>
+        <v>2</v>
       </c>
       <c r="H168">
         <f>IF(ISNA(VLOOKUP(B168,Model!A:B,2,FALSE)),0,VLOOKUP(B168,Model!A:B,2,FALSE))</f>
-        <v>9.7620277266311302</v>
+        <v>0.87962286215465502</v>
       </c>
       <c r="I168" s="4">
         <f t="shared" si="25"/>
-        <v>9.7620277266311302</v>
+        <v>0.87962286215465502</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -14068,7 +14080,7 @@
       </c>
       <c r="R168">
         <f t="shared" si="27"/>
-        <v>3.2540092422103766</v>
+        <v>0.29320762071821832</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.45">
@@ -14076,16 +14088,16 @@
         <v>5</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>383</v>
+        <v>171</v>
       </c>
       <c r="C169" s="10">
         <v>3000</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E169" s="10">
-        <v>16.693999999999999</v>
+        <v>10.843999999999999</v>
       </c>
       <c r="F169">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D169,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D169,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14093,15 +14105,15 @@
       </c>
       <c r="G169">
         <f t="shared" si="24"/>
-        <v>16.693999999999999</v>
+        <v>10.843999999999999</v>
       </c>
       <c r="H169">
         <f>IF(ISNA(VLOOKUP(B169,Model!A:B,2,FALSE)),0,VLOOKUP(B169,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>9.7620277266311302</v>
       </c>
       <c r="I169" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>9.7620277266311302</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -14136,24 +14148,24 @@
       </c>
       <c r="R169">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3.2540092422103766</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A170" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="C170" s="10">
         <v>3000</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E170" s="10">
-        <v>4.75</v>
+        <v>16.693999999999999</v>
       </c>
       <c r="F170">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D170,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D170,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14161,15 +14173,15 @@
       </c>
       <c r="G170">
         <f t="shared" si="24"/>
-        <v>4.75</v>
+        <v>16.693999999999999</v>
       </c>
       <c r="H170">
         <f>IF(ISNA(VLOOKUP(B170,Model!A:B,2,FALSE)),0,VLOOKUP(B170,Model!A:B,2,FALSE))</f>
-        <v>7.5371621621621596</v>
+        <v>0</v>
       </c>
       <c r="I170" s="4">
         <f t="shared" si="25"/>
-        <v>7.5371621621621596</v>
+        <v>0</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -14204,24 +14216,24 @@
       </c>
       <c r="R170">
         <f t="shared" si="27"/>
-        <v>2.5123873873873865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>384</v>
+        <v>172</v>
       </c>
       <c r="C171" s="10">
         <v>3000</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E171" s="10">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="F171">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D171,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D171,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14229,15 +14241,15 @@
       </c>
       <c r="G171">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H171">
         <f>IF(ISNA(VLOOKUP(B171,Model!A:B,2,FALSE)),0,VLOOKUP(B171,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>7.5371621621621596</v>
       </c>
       <c r="I171" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>7.5371621621621596</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -14272,24 +14284,24 @@
       </c>
       <c r="R171">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2.5123873873873865</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A172" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="C172" s="10">
         <v>3000</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E172" s="10">
-        <v>12.063000000000001</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D172,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D172,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14297,15 +14309,15 @@
       </c>
       <c r="G172">
         <f t="shared" si="24"/>
-        <v>12.063000000000001</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <f>IF(ISNA(VLOOKUP(B172,Model!A:B,2,FALSE)),0,VLOOKUP(B172,Model!A:B,2,FALSE))</f>
-        <v>9.3595234614822402</v>
+        <v>0</v>
       </c>
       <c r="I172" s="4">
         <f t="shared" si="25"/>
-        <v>9.3595234614822402</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -14340,24 +14352,24 @@
       </c>
       <c r="R172">
         <f t="shared" si="27"/>
-        <v>3.1198411538274136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C173" s="10">
         <v>3000</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E173" s="10">
-        <v>0</v>
+        <v>12.063000000000001</v>
       </c>
       <c r="F173">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D173,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D173,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14365,15 +14377,15 @@
       </c>
       <c r="G173">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>12.063000000000001</v>
       </c>
       <c r="H173">
         <f>IF(ISNA(VLOOKUP(B173,Model!A:B,2,FALSE)),0,VLOOKUP(B173,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>9.3595234614822402</v>
       </c>
       <c r="I173" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>9.3595234614822402</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -14408,24 +14420,24 @@
       </c>
       <c r="R173">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3.1198411538274136</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A174" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>385</v>
+        <v>174</v>
       </c>
       <c r="C174" s="10">
         <v>3000</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E174" s="10">
-        <v>3.625</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D174,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D174,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14433,15 +14445,15 @@
       </c>
       <c r="G174">
         <f t="shared" si="24"/>
-        <v>3.625</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <f>IF(ISNA(VLOOKUP(B174,Model!A:B,2,FALSE)),0,VLOOKUP(B174,Model!A:B,2,FALSE))</f>
-        <v>3.9249833372539702</v>
+        <v>0</v>
       </c>
       <c r="I174" s="4">
         <f t="shared" si="25"/>
-        <v>3.9249833372539702</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -14476,7 +14488,7 @@
       </c>
       <c r="R174">
         <f t="shared" si="27"/>
-        <v>1.3083277790846568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.45">
@@ -14484,16 +14496,16 @@
         <v>6</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>176</v>
+        <v>385</v>
       </c>
       <c r="C175" s="10">
         <v>3000</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E175" s="10">
-        <v>5.5830000000000002</v>
+        <v>3.625</v>
       </c>
       <c r="F175">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D175,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D175,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14501,15 +14513,15 @@
       </c>
       <c r="G175">
         <f t="shared" si="24"/>
-        <v>5.5830000000000002</v>
+        <v>3.625</v>
       </c>
       <c r="H175">
         <f>IF(ISNA(VLOOKUP(B175,Model!A:B,2,FALSE)),0,VLOOKUP(B175,Model!A:B,2,FALSE))</f>
-        <v>3.0841077072938798</v>
+        <v>3.9249833372539702</v>
       </c>
       <c r="I175" s="4">
         <f t="shared" si="25"/>
-        <v>3.0841077072938798</v>
+        <v>3.9249833372539702</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -14544,24 +14556,24 @@
       </c>
       <c r="R175">
         <f t="shared" si="27"/>
-        <v>1.0280359024312933</v>
+        <v>1.3083277790846568</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A176" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C176" s="10">
         <v>3000</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E176" s="10">
-        <v>3.625</v>
+        <v>5.5830000000000002</v>
       </c>
       <c r="F176">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D176,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D176,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14569,15 +14581,15 @@
       </c>
       <c r="G176">
         <f t="shared" si="24"/>
-        <v>3.625</v>
+        <v>5.5830000000000002</v>
       </c>
       <c r="H176">
         <f>IF(ISNA(VLOOKUP(B176,Model!A:B,2,FALSE)),0,VLOOKUP(B176,Model!A:B,2,FALSE))</f>
-        <v>4.0625</v>
+        <v>3.0841077072938798</v>
       </c>
       <c r="I176" s="4">
         <f t="shared" si="25"/>
-        <v>4.0625</v>
+        <v>3.0841077072938798</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -14612,24 +14624,24 @@
       </c>
       <c r="R176">
         <f t="shared" si="27"/>
-        <v>1.3541666666666667</v>
+        <v>1.0280359024312933</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A177" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="C177" s="10">
         <v>3000</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E177" s="10">
-        <v>5.25</v>
+        <v>3.625</v>
       </c>
       <c r="F177">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D177,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D177,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14637,15 +14649,15 @@
       </c>
       <c r="G177">
         <f t="shared" si="24"/>
-        <v>5.25</v>
+        <v>3.625</v>
       </c>
       <c r="H177">
         <f>IF(ISNA(VLOOKUP(B177,Model!A:B,2,FALSE)),0,VLOOKUP(B177,Model!A:B,2,FALSE))</f>
-        <v>4.9859304195292999</v>
+        <v>4.0625</v>
       </c>
       <c r="I177" s="4">
         <f t="shared" si="25"/>
-        <v>4.9859304195292999</v>
+        <v>4.0625</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -14680,24 +14692,24 @@
       </c>
       <c r="R177">
         <f t="shared" si="27"/>
-        <v>1.6619768065097666</v>
+        <v>1.3541666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A178" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C178" s="10">
         <v>3000</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E178" s="10">
-        <v>12.3</v>
+        <v>5.25</v>
       </c>
       <c r="F178">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D178,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D178,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14705,15 +14717,15 @@
       </c>
       <c r="G178">
         <f t="shared" si="24"/>
-        <v>12.3</v>
+        <v>5.25</v>
       </c>
       <c r="H178">
         <f>IF(ISNA(VLOOKUP(B178,Model!A:B,2,FALSE)),0,VLOOKUP(B178,Model!A:B,2,FALSE))</f>
-        <v>11.4013181287654</v>
+        <v>4.9859304195292999</v>
       </c>
       <c r="I178" s="4">
         <f t="shared" si="25"/>
-        <v>11.4013181287654</v>
+        <v>4.9859304195292999</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -14748,7 +14760,7 @@
       </c>
       <c r="R178">
         <f t="shared" si="27"/>
-        <v>3.8004393762551336</v>
+        <v>1.6619768065097666</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.45">
@@ -14756,16 +14768,16 @@
         <v>5</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C179" s="10">
         <v>3000</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E179" s="10">
-        <v>8.9689999999999994</v>
+        <v>12.3</v>
       </c>
       <c r="F179">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D179,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D179,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14773,15 +14785,15 @@
       </c>
       <c r="G179">
         <f t="shared" si="24"/>
-        <v>8.9689999999999994</v>
+        <v>12.3</v>
       </c>
       <c r="H179">
         <f>IF(ISNA(VLOOKUP(B179,Model!A:B,2,FALSE)),0,VLOOKUP(B179,Model!A:B,2,FALSE))</f>
-        <v>7.6815495994176599</v>
+        <v>11.4013181287654</v>
       </c>
       <c r="I179" s="4">
         <f t="shared" si="25"/>
-        <v>7.6815495994176599</v>
+        <v>11.4013181287654</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -14816,7 +14828,7 @@
       </c>
       <c r="R179">
         <f t="shared" si="27"/>
-        <v>2.5605165331392201</v>
+        <v>3.8004393762551336</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.45">
@@ -14824,16 +14836,16 @@
         <v>5</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="C180" s="10">
         <v>3000</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E180" s="10">
-        <v>11.775</v>
+        <v>8.9689999999999994</v>
       </c>
       <c r="F180">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D180,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D180,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14841,15 +14853,15 @@
       </c>
       <c r="G180">
         <f t="shared" si="24"/>
-        <v>11.775</v>
+        <v>8.9689999999999994</v>
       </c>
       <c r="H180">
         <f>IF(ISNA(VLOOKUP(B180,Model!A:B,2,FALSE)),0,VLOOKUP(B180,Model!A:B,2,FALSE))</f>
-        <v>14.3690822275491</v>
+        <v>7.6815495994176599</v>
       </c>
       <c r="I180" s="4">
         <f t="shared" si="25"/>
-        <v>14.3690822275491</v>
+        <v>7.6815495994176599</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -14884,24 +14896,24 @@
       </c>
       <c r="R180">
         <f t="shared" si="27"/>
-        <v>4.7896940758497006</v>
+        <v>2.5605165331392201</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A181" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="C181" s="10">
         <v>3000</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E181" s="10">
-        <v>3.75</v>
+        <v>11.775</v>
       </c>
       <c r="F181">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D181,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D181,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14909,15 +14921,15 @@
       </c>
       <c r="G181">
         <f t="shared" si="24"/>
-        <v>3.75</v>
+        <v>11.775</v>
       </c>
       <c r="H181">
         <f>IF(ISNA(VLOOKUP(B181,Model!A:B,2,FALSE)),0,VLOOKUP(B181,Model!A:B,2,FALSE))</f>
-        <v>4.0619266055045804</v>
+        <v>14.3690822275491</v>
       </c>
       <c r="I181" s="4">
         <f t="shared" si="25"/>
-        <v>4.0619266055045804</v>
+        <v>14.3690822275491</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -14952,7 +14964,7 @@
       </c>
       <c r="R181">
         <f t="shared" si="27"/>
-        <v>1.3539755351681935</v>
+        <v>4.7896940758497006</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.45">
@@ -14960,16 +14972,16 @@
         <v>6</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>179</v>
+        <v>389</v>
       </c>
       <c r="C182" s="10">
         <v>3000</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E182" s="10">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="F182">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D182,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D182,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -14977,15 +14989,15 @@
       </c>
       <c r="G182">
         <f t="shared" si="24"/>
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="H182">
         <f>IF(ISNA(VLOOKUP(B182,Model!A:B,2,FALSE)),0,VLOOKUP(B182,Model!A:B,2,FALSE))</f>
-        <v>2.96228621546557</v>
+        <v>4.0619266055045804</v>
       </c>
       <c r="I182" s="4">
         <f t="shared" si="25"/>
-        <v>2.96228621546557</v>
+        <v>4.0619266055045804</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -15020,7 +15032,7 @@
       </c>
       <c r="R182">
         <f t="shared" si="27"/>
-        <v>0.98742873848852342</v>
+        <v>1.3539755351681935</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.45">
@@ -15028,16 +15040,16 @@
         <v>6</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="10">
         <v>3000</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E183" s="10">
-        <v>5.4169999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F183">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D183,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D183,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15045,15 +15057,15 @@
       </c>
       <c r="G183">
         <f t="shared" si="24"/>
-        <v>5.4169999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="H183">
         <f>IF(ISNA(VLOOKUP(B183,Model!A:B,2,FALSE)),0,VLOOKUP(B183,Model!A:B,2,FALSE))</f>
-        <v>4.4803477613110596</v>
+        <v>2.96228621546557</v>
       </c>
       <c r="I183" s="4">
         <f t="shared" si="25"/>
-        <v>4.4803477613110596</v>
+        <v>2.96228621546557</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -15088,7 +15100,7 @@
       </c>
       <c r="R183">
         <f t="shared" si="27"/>
-        <v>1.4934492537703532</v>
+        <v>0.98742873848852342</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.45">
@@ -15096,16 +15108,16 @@
         <v>6</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="C184" s="10">
         <v>3000</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E184" s="10">
-        <v>5</v>
+        <v>5.4169999999999998</v>
       </c>
       <c r="F184">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D184,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D184,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15113,15 +15125,15 @@
       </c>
       <c r="G184">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>5.4169999999999998</v>
       </c>
       <c r="H184">
         <f>IF(ISNA(VLOOKUP(B184,Model!A:B,2,FALSE)),0,VLOOKUP(B184,Model!A:B,2,FALSE))</f>
-        <v>3.9067221344265901</v>
+        <v>4.4803477613110596</v>
       </c>
       <c r="I184" s="4">
         <f t="shared" si="25"/>
-        <v>3.9067221344265901</v>
+        <v>4.4803477613110596</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -15156,24 +15168,24 @@
       </c>
       <c r="R184">
         <f t="shared" si="27"/>
-        <v>1.3022407114755301</v>
+        <v>1.4934492537703532</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A185" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="C185" s="10">
         <v>3000</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E185" s="10">
-        <v>4.5629999999999997</v>
+        <v>5</v>
       </c>
       <c r="F185">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D185,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D185,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15181,15 +15193,15 @@
       </c>
       <c r="G185">
         <f t="shared" si="24"/>
-        <v>4.5629999999999997</v>
+        <v>5</v>
       </c>
       <c r="H185">
         <f>IF(ISNA(VLOOKUP(B185,Model!A:B,2,FALSE)),0,VLOOKUP(B185,Model!A:B,2,FALSE))</f>
-        <v>4.4377815315315301</v>
+        <v>3.9067221344265901</v>
       </c>
       <c r="I185" s="4">
         <f t="shared" si="25"/>
-        <v>4.4377815315315301</v>
+        <v>3.9067221344265901</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -15224,24 +15236,24 @@
       </c>
       <c r="R185">
         <f t="shared" si="27"/>
-        <v>1.4792605105105099</v>
+        <v>1.3022407114755301</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A186" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="C186" s="10">
         <v>3000</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E186" s="10">
-        <v>10.778</v>
+        <v>4.5629999999999997</v>
       </c>
       <c r="F186">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D186,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D186,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15249,15 +15261,15 @@
       </c>
       <c r="G186">
         <f t="shared" si="24"/>
-        <v>10.778</v>
+        <v>4.5629999999999997</v>
       </c>
       <c r="H186">
         <f>IF(ISNA(VLOOKUP(B186,Model!A:B,2,FALSE)),0,VLOOKUP(B186,Model!A:B,2,FALSE))</f>
-        <v>10.3757053622399</v>
+        <v>4.4377815315315301</v>
       </c>
       <c r="I186" s="4">
         <f t="shared" si="25"/>
-        <v>10.3757053622399</v>
+        <v>4.4377815315315301</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -15292,24 +15304,24 @@
       </c>
       <c r="R186">
         <f t="shared" si="27"/>
-        <v>3.4585684540799666</v>
+        <v>1.4792605105105099</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="C187" s="10">
         <v>3000</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E187" s="10">
-        <v>9.9640000000000004</v>
+        <v>10.778</v>
       </c>
       <c r="F187">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D187,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D187,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15317,15 +15329,15 @@
       </c>
       <c r="G187">
         <f t="shared" si="24"/>
-        <v>9.9640000000000004</v>
+        <v>10.778</v>
       </c>
       <c r="H187">
         <f>IF(ISNA(VLOOKUP(B187,Model!A:B,2,FALSE)),0,VLOOKUP(B187,Model!A:B,2,FALSE))</f>
-        <v>8.0099485949101705</v>
+        <v>10.3757053622399</v>
       </c>
       <c r="I187" s="4">
         <f t="shared" si="25"/>
-        <v>8.0099485949101705</v>
+        <v>10.3757053622399</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -15360,24 +15372,24 @@
       </c>
       <c r="R187">
         <f t="shared" si="27"/>
-        <v>2.669982864970057</v>
+        <v>3.4585684540799666</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A188" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>391</v>
+        <v>184</v>
       </c>
       <c r="C188" s="10">
         <v>3000</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E188" s="10">
-        <v>6.9290000000000003</v>
+        <v>9.9640000000000004</v>
       </c>
       <c r="F188">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D188,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D188,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15385,15 +15397,15 @@
       </c>
       <c r="G188">
         <f t="shared" si="24"/>
-        <v>6.9290000000000003</v>
+        <v>9.9640000000000004</v>
       </c>
       <c r="H188">
         <f>IF(ISNA(VLOOKUP(B188,Model!A:B,2,FALSE)),0,VLOOKUP(B188,Model!A:B,2,FALSE))</f>
-        <v>8.8476425307679705</v>
+        <v>8.0099485949101705</v>
       </c>
       <c r="I188" s="4">
         <f t="shared" si="25"/>
-        <v>8.8476425307679705</v>
+        <v>8.0099485949101705</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -15428,7 +15440,7 @@
       </c>
       <c r="R188">
         <f t="shared" si="27"/>
-        <v>2.949214176922657</v>
+        <v>2.669982864970057</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.45">
@@ -15436,16 +15448,16 @@
         <v>7</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C189" s="10">
         <v>3000</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E189" s="10">
-        <v>5.7919999999999998</v>
+        <v>6.9290000000000003</v>
       </c>
       <c r="F189">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D189,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D189,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15453,15 +15465,15 @@
       </c>
       <c r="G189">
         <f t="shared" si="24"/>
-        <v>5.7919999999999998</v>
+        <v>6.9290000000000003</v>
       </c>
       <c r="H189">
         <f>IF(ISNA(VLOOKUP(B189,Model!A:B,2,FALSE)),0,VLOOKUP(B189,Model!A:B,2,FALSE))</f>
-        <v>5.6953706970908797</v>
+        <v>8.8476425307679705</v>
       </c>
       <c r="I189" s="4">
         <f t="shared" si="25"/>
-        <v>5.6953706970908797</v>
+        <v>8.8476425307679705</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -15496,24 +15508,24 @@
       </c>
       <c r="R189">
         <f t="shared" si="27"/>
-        <v>1.8984568990302932</v>
+        <v>2.949214176922657</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A190" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C190" s="10">
         <v>3000</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E190" s="10">
-        <v>6.694</v>
+        <v>5.7919999999999998</v>
       </c>
       <c r="F190">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D190,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D190,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15521,15 +15533,15 @@
       </c>
       <c r="G190">
         <f t="shared" si="24"/>
-        <v>6.694</v>
+        <v>5.7919999999999998</v>
       </c>
       <c r="H190">
         <f>IF(ISNA(VLOOKUP(B190,Model!A:B,2,FALSE)),0,VLOOKUP(B190,Model!A:B,2,FALSE))</f>
-        <v>5.9155929995878598</v>
+        <v>5.6953706970908797</v>
       </c>
       <c r="I190" s="4">
         <f t="shared" si="25"/>
-        <v>5.9155929995878598</v>
+        <v>5.6953706970908797</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -15564,7 +15576,7 @@
       </c>
       <c r="R190">
         <f t="shared" si="27"/>
-        <v>1.9718643331959533</v>
+        <v>1.8984568990302932</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.45">
@@ -15572,16 +15584,16 @@
         <v>9</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
       <c r="C191" s="10">
         <v>3000</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E191" s="10">
-        <v>9.75</v>
+        <v>6.694</v>
       </c>
       <c r="F191">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D191,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D191,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15589,15 +15601,15 @@
       </c>
       <c r="G191">
         <f t="shared" si="24"/>
-        <v>9.75</v>
+        <v>6.694</v>
       </c>
       <c r="H191">
         <f>IF(ISNA(VLOOKUP(B191,Model!A:B,2,FALSE)),0,VLOOKUP(B191,Model!A:B,2,FALSE))</f>
-        <v>10.7862033174946</v>
+        <v>5.9155929995878598</v>
       </c>
       <c r="I191" s="4">
         <f t="shared" si="25"/>
-        <v>10.7862033174946</v>
+        <v>5.9155929995878598</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -15632,24 +15644,24 @@
       </c>
       <c r="R191">
         <f t="shared" si="27"/>
-        <v>3.5954011058315336</v>
+        <v>1.9718643331959533</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A192" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C192" s="10">
         <v>3000</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E192" s="10">
-        <v>13.714</v>
+        <v>9.75</v>
       </c>
       <c r="F192">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D192,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D192,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15657,15 +15669,15 @@
       </c>
       <c r="G192">
         <f t="shared" si="24"/>
-        <v>13.714</v>
+        <v>9.75</v>
       </c>
       <c r="H192">
         <f>IF(ISNA(VLOOKUP(B192,Model!A:B,2,FALSE)),0,VLOOKUP(B192,Model!A:B,2,FALSE))</f>
-        <v>15.792702267287099</v>
+        <v>10.7862033174946</v>
       </c>
       <c r="I192" s="4">
         <f t="shared" si="25"/>
-        <v>15.792702267287099</v>
+        <v>10.7862033174946</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -15700,24 +15712,24 @@
       </c>
       <c r="R192">
         <f t="shared" si="27"/>
-        <v>5.2642340890956998</v>
+        <v>3.5954011058315336</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>394</v>
+        <v>189</v>
       </c>
       <c r="C193" s="10">
         <v>3000</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E193" s="10">
-        <v>0</v>
+        <v>13.714</v>
       </c>
       <c r="F193">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D193,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D193,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15725,15 +15737,15 @@
       </c>
       <c r="G193">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>13.714</v>
       </c>
       <c r="H193">
         <f>IF(ISNA(VLOOKUP(B193,Model!A:B,2,FALSE)),0,VLOOKUP(B193,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>15.792702267287099</v>
       </c>
       <c r="I193" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>15.792702267287099</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -15768,24 +15780,24 @@
       </c>
       <c r="R193">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>5.2642340890956998</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C194" s="10">
         <v>3000</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E194" s="10">
-        <v>6.4749999999999996</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D194,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D194,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15793,15 +15805,15 @@
       </c>
       <c r="G194">
         <f t="shared" si="24"/>
-        <v>6.4749999999999996</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <f>IF(ISNA(VLOOKUP(B194,Model!A:B,2,FALSE)),0,VLOOKUP(B194,Model!A:B,2,FALSE))</f>
-        <v>7.1195900827467602</v>
+        <v>0</v>
       </c>
       <c r="I194" s="4">
         <f t="shared" si="25"/>
-        <v>7.1195900827467602</v>
+        <v>0</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -15836,24 +15848,24 @@
       </c>
       <c r="R194">
         <f t="shared" si="27"/>
-        <v>2.3731966942489202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C195" s="10">
         <v>3000</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E195" s="10">
-        <v>0.313</v>
+        <v>6.4749999999999996</v>
       </c>
       <c r="F195">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D195,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D195,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15861,15 +15873,15 @@
       </c>
       <c r="G195">
         <f t="shared" ref="G195:G258" si="36">E195*F195</f>
-        <v>0.313</v>
+        <v>6.4749999999999996</v>
       </c>
       <c r="H195">
         <f>IF(ISNA(VLOOKUP(B195,Model!A:B,2,FALSE)),0,VLOOKUP(B195,Model!A:B,2,FALSE))</f>
-        <v>0.48282657657657602</v>
+        <v>7.1195900827467602</v>
       </c>
       <c r="I195" s="4">
         <f t="shared" ref="I195:I258" si="37">IF(ISNA(VLOOKUP(B195,$Y$2:$Z$12,2,FALSE)),H195,VLOOKUP(B195,$Y$2:$Z$12,2,FALSE))</f>
-        <v>0.48282657657657602</v>
+        <v>7.1195900827467602</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -15904,24 +15916,24 @@
       </c>
       <c r="R195">
         <f t="shared" ref="R195:R258" si="39">I195/C195*1000</f>
-        <v>0.160942192192192</v>
+        <v>2.3731966942489202</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="C196" s="10">
         <v>3000</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E196" s="10">
-        <v>10.536</v>
+        <v>0.313</v>
       </c>
       <c r="F196">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D196,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D196,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15929,15 +15941,15 @@
       </c>
       <c r="G196">
         <f t="shared" si="36"/>
-        <v>10.536</v>
+        <v>0.313</v>
       </c>
       <c r="H196">
         <f>IF(ISNA(VLOOKUP(B196,Model!A:B,2,FALSE)),0,VLOOKUP(B196,Model!A:B,2,FALSE))</f>
-        <v>11.8916279188321</v>
+        <v>0.48282657657657602</v>
       </c>
       <c r="I196" s="4">
         <f t="shared" si="37"/>
-        <v>11.8916279188321</v>
+        <v>0.48282657657657602</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -15972,24 +15984,24 @@
       </c>
       <c r="R196">
         <f t="shared" si="39"/>
-        <v>3.9638759729440332</v>
+        <v>0.160942192192192</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>397</v>
+        <v>195</v>
       </c>
       <c r="C197" s="10">
         <v>3000</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E197" s="10">
-        <v>0</v>
+        <v>10.536</v>
       </c>
       <c r="F197">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D197,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D197,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -15997,15 +16009,15 @@
       </c>
       <c r="G197">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>10.536</v>
       </c>
       <c r="H197">
         <f>IF(ISNA(VLOOKUP(B197,Model!A:B,2,FALSE)),0,VLOOKUP(B197,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>11.8916279188321</v>
       </c>
       <c r="I197" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>11.8916279188321</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -16040,24 +16052,24 @@
       </c>
       <c r="R197">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>3.9638759729440332</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A198" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="C198" s="10">
         <v>3000</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E198" s="10">
-        <v>6.125</v>
+        <v>0</v>
       </c>
       <c r="F198">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D198,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D198,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16065,15 +16077,15 @@
       </c>
       <c r="G198">
         <f t="shared" si="36"/>
-        <v>6.125</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <f>IF(ISNA(VLOOKUP(B198,Model!A:B,2,FALSE)),0,VLOOKUP(B198,Model!A:B,2,FALSE))</f>
-        <v>4.0996775268564196</v>
+        <v>0</v>
       </c>
       <c r="I198" s="4">
         <f t="shared" si="37"/>
-        <v>4.0996775268564196</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -16108,24 +16120,24 @@
       </c>
       <c r="R198">
         <f t="shared" si="39"/>
-        <v>1.3665591756188065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A199" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="C199" s="10">
         <v>3000</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E199" s="10">
-        <v>4.75</v>
+        <v>6.125</v>
       </c>
       <c r="F199">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D199,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D199,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16133,15 +16145,15 @@
       </c>
       <c r="G199">
         <f t="shared" si="36"/>
-        <v>4.75</v>
+        <v>6.125</v>
       </c>
       <c r="H199">
         <f>IF(ISNA(VLOOKUP(B199,Model!A:B,2,FALSE)),0,VLOOKUP(B199,Model!A:B,2,FALSE))</f>
-        <v>5.8492511565905998</v>
+        <v>4.0996775268564196</v>
       </c>
       <c r="I199" s="4">
         <f t="shared" si="37"/>
-        <v>5.8492511565905998</v>
+        <v>4.0996775268564196</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -16176,7 +16188,7 @@
       </c>
       <c r="R199">
         <f t="shared" si="39"/>
-        <v>1.9497503855301999</v>
+        <v>1.3665591756188065</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.45">
@@ -16184,16 +16196,16 @@
         <v>5</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>302</v>
+        <v>196</v>
       </c>
       <c r="C200" s="10">
         <v>3000</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E200" s="10">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="F200">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D200,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D200,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16201,15 +16213,15 @@
       </c>
       <c r="G200">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H200">
         <f>IF(ISNA(VLOOKUP(B200,Model!A:B,2,FALSE)),0,VLOOKUP(B200,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>5.8492511565905998</v>
       </c>
       <c r="I200" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5.8492511565905998</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -16244,24 +16256,24 @@
       </c>
       <c r="R200">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1.9497503855301999</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="C201" s="10">
         <v>3000</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E201" s="10">
-        <v>5.9580000000000002</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D201,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D201,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16269,15 +16281,15 @@
       </c>
       <c r="G201">
         <f t="shared" si="36"/>
-        <v>5.9580000000000002</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <f>IF(ISNA(VLOOKUP(B201,Model!A:B,2,FALSE)),0,VLOOKUP(B201,Model!A:B,2,FALSE))</f>
-        <v>7.52328373715988</v>
+        <v>0</v>
       </c>
       <c r="I201" s="4">
         <f t="shared" si="37"/>
-        <v>7.52328373715988</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -16312,15 +16324,15 @@
       </c>
       <c r="R201">
         <f t="shared" si="39"/>
-        <v>2.5077612457199598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="10">
         <v>3000</v>
@@ -16329,7 +16341,7 @@
         <v>323</v>
       </c>
       <c r="E202" s="10">
-        <v>2.1669999999999998</v>
+        <v>5.9580000000000002</v>
       </c>
       <c r="F202">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D202,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D202,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16337,15 +16349,15 @@
       </c>
       <c r="G202">
         <f t="shared" si="36"/>
-        <v>2.1669999999999998</v>
+        <v>5.9580000000000002</v>
       </c>
       <c r="H202">
         <f>IF(ISNA(VLOOKUP(B202,Model!A:B,2,FALSE)),0,VLOOKUP(B202,Model!A:B,2,FALSE))</f>
-        <v>2.2293577981651298</v>
+        <v>7.52328373715988</v>
       </c>
       <c r="I202" s="4">
         <f t="shared" si="37"/>
-        <v>2.2293577981651298</v>
+        <v>7.52328373715988</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -16380,24 +16392,24 @@
       </c>
       <c r="R202">
         <f t="shared" si="39"/>
-        <v>0.74311926605504319</v>
+        <v>2.5077612457199598</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="C203" s="10">
         <v>3000</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E203" s="10">
-        <v>0.875</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="F203">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D203,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D203,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16405,15 +16417,15 @@
       </c>
       <c r="G203">
         <f t="shared" si="36"/>
-        <v>0.875</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="H203">
         <f>IF(ISNA(VLOOKUP(B203,Model!A:B,2,FALSE)),0,VLOOKUP(B203,Model!A:B,2,FALSE))</f>
-        <v>0.36993243243243201</v>
+        <v>2.2293577981651298</v>
       </c>
       <c r="I203" s="4">
         <f t="shared" si="37"/>
-        <v>0.36993243243243201</v>
+        <v>2.2293577981651298</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -16448,24 +16460,24 @@
       </c>
       <c r="R203">
         <f t="shared" si="39"/>
-        <v>0.12331081081081068</v>
+        <v>0.74311926605504319</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
       <c r="C204" s="10">
         <v>3000</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E204" s="10">
-        <v>8.75</v>
+        <v>0.875</v>
       </c>
       <c r="F204">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D204,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D204,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16473,15 +16485,15 @@
       </c>
       <c r="G204">
         <f t="shared" si="36"/>
-        <v>8.75</v>
+        <v>0.875</v>
       </c>
       <c r="H204">
         <f>IF(ISNA(VLOOKUP(B204,Model!A:B,2,FALSE)),0,VLOOKUP(B204,Model!A:B,2,FALSE))</f>
-        <v>8.8333333333333304</v>
+        <v>0.36993243243243201</v>
       </c>
       <c r="I204" s="4">
         <f t="shared" si="37"/>
-        <v>8.8333333333333304</v>
+        <v>0.36993243243243201</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -16516,24 +16528,24 @@
       </c>
       <c r="R204">
         <f t="shared" si="39"/>
-        <v>2.9444444444444438</v>
+        <v>0.12331081081081068</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A205" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="C205" s="10">
         <v>3000</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E205" s="10">
-        <v>11.75</v>
+        <v>8.75</v>
       </c>
       <c r="F205">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D205,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D205,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16541,15 +16553,15 @@
       </c>
       <c r="G205">
         <f t="shared" si="36"/>
-        <v>11.75</v>
+        <v>8.75</v>
       </c>
       <c r="H205">
         <f>IF(ISNA(VLOOKUP(B205,Model!A:B,2,FALSE)),0,VLOOKUP(B205,Model!A:B,2,FALSE))</f>
-        <v>12.7618243243243</v>
+        <v>8.8333333333333304</v>
       </c>
       <c r="I205" s="4">
         <f t="shared" si="37"/>
-        <v>12.7618243243243</v>
+        <v>8.8333333333333304</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -16584,24 +16596,24 @@
       </c>
       <c r="R205">
         <f t="shared" si="39"/>
-        <v>4.2539414414414338</v>
+        <v>2.9444444444444438</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A206" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="10">
         <v>3000</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E206" s="10">
-        <v>8.125</v>
+        <v>11.75</v>
       </c>
       <c r="F206">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D206,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D206,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16609,15 +16621,15 @@
       </c>
       <c r="G206">
         <f t="shared" si="36"/>
-        <v>8.125</v>
+        <v>11.75</v>
       </c>
       <c r="H206">
         <f>IF(ISNA(VLOOKUP(B206,Model!A:B,2,FALSE)),0,VLOOKUP(B206,Model!A:B,2,FALSE))</f>
-        <v>11.1069819819819</v>
+        <v>12.7618243243243</v>
       </c>
       <c r="I206" s="4">
         <f t="shared" si="37"/>
-        <v>11.1069819819819</v>
+        <v>12.7618243243243</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -16652,24 +16664,24 @@
       </c>
       <c r="R206">
         <f t="shared" si="39"/>
-        <v>3.7023273273272999</v>
+        <v>4.2539414414414338</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C207" s="10">
         <v>3000</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E207" s="10">
-        <v>10.718999999999999</v>
+        <v>8.125</v>
       </c>
       <c r="F207">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D207,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D207,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16677,15 +16689,15 @@
       </c>
       <c r="G207">
         <f t="shared" si="36"/>
-        <v>10.718999999999999</v>
+        <v>8.125</v>
       </c>
       <c r="H207">
         <f>IF(ISNA(VLOOKUP(B207,Model!A:B,2,FALSE)),0,VLOOKUP(B207,Model!A:B,2,FALSE))</f>
-        <v>10.317308458077999</v>
+        <v>11.1069819819819</v>
       </c>
       <c r="I207" s="4">
         <f t="shared" si="37"/>
-        <v>10.317308458077999</v>
+        <v>11.1069819819819</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -16720,24 +16732,24 @@
       </c>
       <c r="R207">
         <f t="shared" si="39"/>
-        <v>3.4391028193593334</v>
+        <v>3.7023273273272999</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A208" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="C208" s="10">
         <v>3000</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E208" s="10">
-        <v>4.4379999999999997</v>
+        <v>10.718999999999999</v>
       </c>
       <c r="F208">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D208,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D208,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16745,15 +16757,15 @@
       </c>
       <c r="G208">
         <f t="shared" si="36"/>
-        <v>4.4379999999999997</v>
+        <v>10.718999999999999</v>
       </c>
       <c r="H208">
         <f>IF(ISNA(VLOOKUP(B208,Model!A:B,2,FALSE)),0,VLOOKUP(B208,Model!A:B,2,FALSE))</f>
-        <v>4.9118806306306304</v>
+        <v>10.317308458077999</v>
       </c>
       <c r="I208" s="4">
         <f t="shared" si="37"/>
-        <v>4.9118806306306304</v>
+        <v>10.317308458077999</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -16788,24 +16800,24 @@
       </c>
       <c r="R208">
         <f t="shared" si="39"/>
-        <v>1.6372935435435434</v>
+        <v>3.4391028193593334</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A209" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>305</v>
+        <v>67</v>
       </c>
       <c r="C209" s="10">
         <v>3000</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E209" s="10">
-        <v>0</v>
+        <v>4.4379999999999997</v>
       </c>
       <c r="F209">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D209,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D209,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16813,15 +16825,15 @@
       </c>
       <c r="G209">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4.4379999999999997</v>
       </c>
       <c r="H209">
         <f>IF(ISNA(VLOOKUP(B209,Model!A:B,2,FALSE)),0,VLOOKUP(B209,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>4.9118806306306304</v>
       </c>
       <c r="I209" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>4.9118806306306304</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -16856,24 +16868,24 @@
       </c>
       <c r="R209">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1.6372935435435434</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A210" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="C210" s="10">
         <v>3000</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="E210" s="10">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="F210">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D210,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D210,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16881,15 +16893,15 @@
       </c>
       <c r="G210">
         <f t="shared" si="36"/>
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <f>IF(ISNA(VLOOKUP(B210,Model!A:B,2,FALSE)),0,VLOOKUP(B210,Model!A:B,2,FALSE))</f>
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="I210" s="4">
         <f t="shared" si="37"/>
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -16924,7 +16936,7 @@
       </c>
       <c r="R210">
         <f t="shared" si="39"/>
-        <v>0.70833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.45">
@@ -16932,16 +16944,16 @@
         <v>9</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C211" s="10">
         <v>3000</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E211" s="10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="F211">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D211,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D211,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -16949,15 +16961,15 @@
       </c>
       <c r="G211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H211">
         <f>IF(ISNA(VLOOKUP(B211,Model!A:B,2,FALSE)),0,VLOOKUP(B211,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="I211" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -16992,7 +17004,7 @@
       </c>
       <c r="R211">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.45">
@@ -17000,13 +17012,13 @@
         <v>9</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>399</v>
+        <v>206</v>
       </c>
       <c r="C212" s="10">
         <v>3000</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E212" s="10">
         <v>0</v>
@@ -17065,19 +17077,19 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A213" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>208</v>
+        <v>399</v>
       </c>
       <c r="C213" s="10">
         <v>3000</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E213" s="10">
-        <v>11.625</v>
+        <v>0</v>
       </c>
       <c r="F213">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D213,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D213,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17085,15 +17097,15 @@
       </c>
       <c r="G213">
         <f t="shared" si="36"/>
-        <v>11.625</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <f>IF(ISNA(VLOOKUP(B213,Model!A:B,2,FALSE)),0,VLOOKUP(B213,Model!A:B,2,FALSE))</f>
-        <v>12.4151549930631</v>
+        <v>0</v>
       </c>
       <c r="I213" s="4">
         <f t="shared" si="37"/>
-        <v>12.4151549930631</v>
+        <v>0</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -17128,24 +17140,24 @@
       </c>
       <c r="R213">
         <f t="shared" si="39"/>
-        <v>4.1383849976876999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A214" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>400</v>
+        <v>208</v>
       </c>
       <c r="C214" s="10">
         <v>3000</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E214" s="10">
-        <v>0</v>
+        <v>11.625</v>
       </c>
       <c r="F214">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D214,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D214,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17153,15 +17165,15 @@
       </c>
       <c r="G214">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>11.625</v>
       </c>
       <c r="H214">
         <f>IF(ISNA(VLOOKUP(B214,Model!A:B,2,FALSE)),0,VLOOKUP(B214,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>12.4151549930631</v>
       </c>
       <c r="I214" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>12.4151549930631</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -17196,24 +17208,24 @@
       </c>
       <c r="R214">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4.1383849976876999</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A215" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>212</v>
+        <v>400</v>
       </c>
       <c r="C215" s="10">
         <v>3000</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E215" s="10">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="F215">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D215,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D215,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17221,15 +17233,15 @@
       </c>
       <c r="G215">
         <f t="shared" si="36"/>
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <f>IF(ISNA(VLOOKUP(B215,Model!A:B,2,FALSE)),0,VLOOKUP(B215,Model!A:B,2,FALSE))</f>
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="I215" s="4">
         <f t="shared" si="37"/>
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -17264,24 +17276,24 @@
       </c>
       <c r="R215">
         <f t="shared" si="39"/>
-        <v>2.916666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A216" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>401</v>
+        <v>212</v>
       </c>
       <c r="C216" s="10">
         <v>3000</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E216" s="10">
-        <v>2.9380000000000002</v>
+        <v>8.75</v>
       </c>
       <c r="F216">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D216,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D216,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17289,15 +17301,15 @@
       </c>
       <c r="G216">
         <f t="shared" si="36"/>
-        <v>2.9380000000000002</v>
+        <v>8.75</v>
       </c>
       <c r="H216">
         <f>IF(ISNA(VLOOKUP(B216,Model!A:B,2,FALSE)),0,VLOOKUP(B216,Model!A:B,2,FALSE))</f>
-        <v>1.8229166666666601</v>
+        <v>8.75</v>
       </c>
       <c r="I216" s="4">
         <f t="shared" si="37"/>
-        <v>1.8229166666666601</v>
+        <v>8.75</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -17332,7 +17344,7 @@
       </c>
       <c r="R216">
         <f t="shared" si="39"/>
-        <v>0.60763888888888673</v>
+        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.45">
@@ -17340,16 +17352,16 @@
         <v>6</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C217" s="10">
         <v>3000</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E217" s="10">
-        <v>6.8929999999999998</v>
+        <v>2.9380000000000002</v>
       </c>
       <c r="F217">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D217,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D217,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17357,15 +17369,15 @@
       </c>
       <c r="G217">
         <f t="shared" si="36"/>
-        <v>6.8929999999999998</v>
+        <v>2.9380000000000002</v>
       </c>
       <c r="H217">
         <f>IF(ISNA(VLOOKUP(B217,Model!A:B,2,FALSE)),0,VLOOKUP(B217,Model!A:B,2,FALSE))</f>
-        <v>5.0894699349894896</v>
+        <v>1.8229166666666601</v>
       </c>
       <c r="I217" s="4">
         <f t="shared" si="37"/>
-        <v>5.0894699349894896</v>
+        <v>1.8229166666666601</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -17400,24 +17412,24 @@
       </c>
       <c r="R217">
         <f t="shared" si="39"/>
-        <v>1.69648997832983</v>
+        <v>0.60763888888888673</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A218" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C218" s="10">
         <v>3000</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E218" s="10">
-        <v>2.8130000000000002</v>
+        <v>6.8929999999999998</v>
       </c>
       <c r="F218">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D218,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D218,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17425,15 +17437,15 @@
       </c>
       <c r="G218">
         <f t="shared" si="36"/>
-        <v>2.8130000000000002</v>
+        <v>6.8929999999999998</v>
       </c>
       <c r="H218">
         <f>IF(ISNA(VLOOKUP(B218,Model!A:B,2,FALSE)),0,VLOOKUP(B218,Model!A:B,2,FALSE))</f>
-        <v>2.21987612612612</v>
+        <v>5.0894699349894896</v>
       </c>
       <c r="I218" s="4">
         <f t="shared" si="37"/>
-        <v>2.21987612612612</v>
+        <v>5.0894699349894896</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -17468,7 +17480,7 @@
       </c>
       <c r="R218">
         <f t="shared" si="39"/>
-        <v>0.73995870870870661</v>
+        <v>1.69648997832983</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.45">
@@ -17476,16 +17488,16 @@
         <v>5</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="C219" s="10">
         <v>3000</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E219" s="10">
-        <v>3.6070000000000002</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="F219">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D219,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D219,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17493,15 +17505,15 @@
       </c>
       <c r="G219">
         <f t="shared" si="36"/>
-        <v>3.6070000000000002</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="H219">
         <f>IF(ISNA(VLOOKUP(B219,Model!A:B,2,FALSE)),0,VLOOKUP(B219,Model!A:B,2,FALSE))</f>
-        <v>3.39208494474315</v>
+        <v>2.21987612612612</v>
       </c>
       <c r="I219" s="4">
         <f t="shared" si="37"/>
-        <v>3.39208494474315</v>
+        <v>2.21987612612612</v>
       </c>
       <c r="J219">
         <v>0</v>
@@ -17536,24 +17548,24 @@
       </c>
       <c r="R219">
         <f t="shared" si="39"/>
-        <v>1.1306949815810499</v>
+        <v>0.73995870870870661</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A220" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>404</v>
+        <v>213</v>
       </c>
       <c r="C220" s="10">
         <v>3000</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E220" s="10">
-        <v>2.5710000000000002</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="F220">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D220,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D220,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17561,15 +17573,15 @@
       </c>
       <c r="G220">
         <f t="shared" si="36"/>
-        <v>2.5710000000000002</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="H220">
         <f>IF(ISNA(VLOOKUP(B220,Model!A:B,2,FALSE)),0,VLOOKUP(B220,Model!A:B,2,FALSE))</f>
-        <v>3.28173186051316</v>
+        <v>3.39208494474315</v>
       </c>
       <c r="I220" s="4">
         <f t="shared" si="37"/>
-        <v>3.28173186051316</v>
+        <v>3.39208494474315</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -17604,24 +17616,24 @@
       </c>
       <c r="R220">
         <f t="shared" si="39"/>
-        <v>1.0939106201710533</v>
+        <v>1.1306949815810499</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="C221" s="10">
         <v>3000</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E221" s="10">
-        <v>-0.25</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="F221">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D221,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D221,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17629,15 +17641,15 @@
       </c>
       <c r="G221">
         <f t="shared" si="36"/>
-        <v>-0.25</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="H221">
         <f>IF(ISNA(VLOOKUP(B221,Model!A:B,2,FALSE)),0,VLOOKUP(B221,Model!A:B,2,FALSE))</f>
-        <v>-0.20833333333333301</v>
+        <v>3.28173186051316</v>
       </c>
       <c r="I221" s="4">
         <f t="shared" si="37"/>
-        <v>-0.20833333333333301</v>
+        <v>3.28173186051316</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -17672,24 +17684,24 @@
       </c>
       <c r="R221">
         <f t="shared" si="39"/>
-        <v>-6.9444444444444337E-2</v>
+        <v>1.0939106201710533</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A222" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>405</v>
+        <v>214</v>
       </c>
       <c r="C222" s="10">
         <v>3000</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E222" s="10">
-        <v>9</v>
+        <v>-0.25</v>
       </c>
       <c r="F222">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D222,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D222,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17697,15 +17709,15 @@
       </c>
       <c r="G222">
         <f t="shared" si="36"/>
-        <v>9</v>
+        <v>-0.25</v>
       </c>
       <c r="H222">
         <f>IF(ISNA(VLOOKUP(B222,Model!A:B,2,FALSE)),0,VLOOKUP(B222,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>-0.20833333333333301</v>
       </c>
       <c r="I222" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>-0.20833333333333301</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -17740,7 +17752,7 @@
       </c>
       <c r="R222">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-6.9444444444444337E-2</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.45">
@@ -17748,16 +17760,16 @@
         <v>5</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>307</v>
+        <v>405</v>
       </c>
       <c r="C223" s="10">
         <v>3000</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E223" s="10">
-        <v>5.5830000000000002</v>
+        <v>9</v>
       </c>
       <c r="F223">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D223,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D223,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17765,15 +17777,15 @@
       </c>
       <c r="G223">
         <f t="shared" si="36"/>
-        <v>5.5830000000000002</v>
+        <v>9</v>
       </c>
       <c r="H223">
         <f>IF(ISNA(VLOOKUP(B223,Model!A:B,2,FALSE)),0,VLOOKUP(B223,Model!A:B,2,FALSE))</f>
-        <v>6.8371559633027497</v>
+        <v>0</v>
       </c>
       <c r="I223" s="4">
         <f t="shared" si="37"/>
-        <v>6.8371559633027497</v>
+        <v>0</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -17808,24 +17820,24 @@
       </c>
       <c r="R223">
         <f t="shared" si="39"/>
-        <v>2.2790519877675832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A224" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="C224" s="10">
         <v>3000</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E224" s="10">
-        <v>0</v>
+        <v>5.5830000000000002</v>
       </c>
       <c r="F224">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D224,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D224,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17833,15 +17845,15 @@
       </c>
       <c r="G224">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>5.5830000000000002</v>
       </c>
       <c r="H224">
         <f>IF(ISNA(VLOOKUP(B224,Model!A:B,2,FALSE)),0,VLOOKUP(B224,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>6.8371559633027497</v>
       </c>
       <c r="I224" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>6.8371559633027497</v>
       </c>
       <c r="J224">
         <v>0</v>
@@ -17876,24 +17888,24 @@
       </c>
       <c r="R224">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2.2790519877675832</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>309</v>
+        <v>406</v>
       </c>
       <c r="C225" s="10">
         <v>3000</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E225" s="10">
-        <v>8.4169999999999998</v>
+        <v>0</v>
       </c>
       <c r="F225">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D225,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D225,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17901,15 +17913,15 @@
       </c>
       <c r="G225">
         <f t="shared" si="36"/>
-        <v>8.4169999999999998</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <f>IF(ISNA(VLOOKUP(B225,Model!A:B,2,FALSE)),0,VLOOKUP(B225,Model!A:B,2,FALSE))</f>
-        <v>7.6307339449541303</v>
+        <v>0</v>
       </c>
       <c r="I225" s="4">
         <f t="shared" si="37"/>
-        <v>7.6307339449541303</v>
+        <v>0</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -17944,24 +17956,24 @@
       </c>
       <c r="R225">
         <f t="shared" si="39"/>
-        <v>2.5435779816513771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A226" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="C226" s="10">
         <v>3000</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E226" s="10">
-        <v>9</v>
+        <v>8.4169999999999998</v>
       </c>
       <c r="F226">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D226,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D226,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -17969,15 +17981,15 @@
       </c>
       <c r="G226">
         <f t="shared" si="36"/>
-        <v>9</v>
+        <v>8.4169999999999998</v>
       </c>
       <c r="H226">
         <f>IF(ISNA(VLOOKUP(B226,Model!A:B,2,FALSE)),0,VLOOKUP(B226,Model!A:B,2,FALSE))</f>
-        <v>11.432027481362301</v>
+        <v>7.6307339449541303</v>
       </c>
       <c r="I226" s="4">
         <f t="shared" si="37"/>
-        <v>11.432027481362301</v>
+        <v>7.6307339449541303</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -18012,7 +18024,7 @@
       </c>
       <c r="R226">
         <f t="shared" si="39"/>
-        <v>3.8106758271207668</v>
+        <v>2.5435779816513771</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.45">
@@ -18020,16 +18032,16 @@
         <v>9</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C227" s="10">
         <v>3000</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E227" s="10">
-        <v>5.4379999999999997</v>
+        <v>9</v>
       </c>
       <c r="F227">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D227,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D227,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18037,15 +18049,15 @@
       </c>
       <c r="G227">
         <f t="shared" si="36"/>
-        <v>5.4379999999999997</v>
+        <v>9</v>
       </c>
       <c r="H227">
         <f>IF(ISNA(VLOOKUP(B227,Model!A:B,2,FALSE)),0,VLOOKUP(B227,Model!A:B,2,FALSE))</f>
-        <v>4.3563422560035203</v>
+        <v>11.432027481362301</v>
       </c>
       <c r="I227" s="4">
         <f t="shared" si="37"/>
-        <v>4.3563422560035203</v>
+        <v>11.432027481362301</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -18080,15 +18092,15 @@
       </c>
       <c r="R227">
         <f t="shared" si="39"/>
-        <v>1.4521140853345069</v>
+        <v>3.8106758271207668</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A228" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C228" s="10">
         <v>3000</v>
@@ -18097,7 +18109,7 @@
         <v>325</v>
       </c>
       <c r="E228" s="10">
-        <v>-0.5</v>
+        <v>5.4379999999999997</v>
       </c>
       <c r="F228">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D228,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D228,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18105,15 +18117,15 @@
       </c>
       <c r="G228">
         <f t="shared" si="36"/>
-        <v>-0.5</v>
+        <v>5.4379999999999997</v>
       </c>
       <c r="H228">
         <f>IF(ISNA(VLOOKUP(B228,Model!A:B,2,FALSE)),0,VLOOKUP(B228,Model!A:B,2,FALSE))</f>
-        <v>-0.5</v>
+        <v>4.3563422560035203</v>
       </c>
       <c r="I228" s="4">
         <f t="shared" si="37"/>
-        <v>-0.5</v>
+        <v>4.3563422560035203</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -18148,24 +18160,24 @@
       </c>
       <c r="R228">
         <f t="shared" si="39"/>
-        <v>-0.16666666666666666</v>
+        <v>1.4521140853345069</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A229" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="C229" s="10">
         <v>3000</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E229" s="10">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="F229">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D229,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D229,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18173,15 +18185,15 @@
       </c>
       <c r="G229">
         <f t="shared" si="36"/>
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="H229">
         <f>IF(ISNA(VLOOKUP(B229,Model!A:B,2,FALSE)),0,VLOOKUP(B229,Model!A:B,2,FALSE))</f>
-        <v>1.4583333333333299</v>
+        <v>-0.5</v>
       </c>
       <c r="I229" s="4">
         <f t="shared" si="37"/>
-        <v>1.4583333333333299</v>
+        <v>-0.5</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -18216,24 +18228,24 @@
       </c>
       <c r="R229">
         <f t="shared" si="39"/>
-        <v>0.48611111111110994</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A230" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="C230" s="10">
         <v>3000</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E230" s="10">
-        <v>6.125</v>
+        <v>1.75</v>
       </c>
       <c r="F230">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D230,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D230,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18241,15 +18253,15 @@
       </c>
       <c r="G230">
         <f t="shared" si="36"/>
-        <v>6.125</v>
+        <v>1.75</v>
       </c>
       <c r="H230">
         <f>IF(ISNA(VLOOKUP(B230,Model!A:B,2,FALSE)),0,VLOOKUP(B230,Model!A:B,2,FALSE))</f>
-        <v>7.6371419544131003</v>
+        <v>1.4583333333333299</v>
       </c>
       <c r="I230" s="4">
         <f t="shared" si="37"/>
-        <v>7.6371419544131003</v>
+        <v>1.4583333333333299</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -18284,24 +18296,24 @@
       </c>
       <c r="R230">
         <f t="shared" si="39"/>
-        <v>2.5457139848043666</v>
+        <v>0.48611111111110994</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A231" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>216</v>
+        <v>410</v>
       </c>
       <c r="C231" s="10">
         <v>3000</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E231" s="10">
-        <v>7.1429999999999998</v>
+        <v>6.125</v>
       </c>
       <c r="F231">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D231,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D231,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18309,15 +18321,15 @@
       </c>
       <c r="G231">
         <f t="shared" si="36"/>
-        <v>7.1429999999999998</v>
+        <v>6.125</v>
       </c>
       <c r="H231">
         <f>IF(ISNA(VLOOKUP(B231,Model!A:B,2,FALSE)),0,VLOOKUP(B231,Model!A:B,2,FALSE))</f>
-        <v>9.0023049114878209</v>
+        <v>7.6371419544131003</v>
       </c>
       <c r="I231" s="4">
         <f t="shared" si="37"/>
-        <v>9.0023049114878209</v>
+        <v>7.6371419544131003</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -18352,7 +18364,7 @@
       </c>
       <c r="R231">
         <f t="shared" si="39"/>
-        <v>3.0007683038292736</v>
+        <v>2.5457139848043666</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.45">
@@ -18360,16 +18372,16 @@
         <v>6</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C232" s="10">
         <v>3000</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E232" s="10">
-        <v>0</v>
+        <v>7.1429999999999998</v>
       </c>
       <c r="F232">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D232,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D232,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18377,15 +18389,15 @@
       </c>
       <c r="G232">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>7.1429999999999998</v>
       </c>
       <c r="H232">
         <f>IF(ISNA(VLOOKUP(B232,Model!A:B,2,FALSE)),0,VLOOKUP(B232,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>9.0023049114878209</v>
       </c>
       <c r="I232" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>9.0023049114878209</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -18420,24 +18432,24 @@
       </c>
       <c r="R232">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>3.0007683038292736</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C233" s="10">
         <v>3000</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E233" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F233">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D233,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D233,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18445,15 +18457,15 @@
       </c>
       <c r="G233">
         <f t="shared" si="36"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <f>IF(ISNA(VLOOKUP(B233,Model!A:B,2,FALSE)),0,VLOOKUP(B233,Model!A:B,2,FALSE))</f>
-        <v>8.1908783783783701</v>
+        <v>0</v>
       </c>
       <c r="I233" s="4">
         <f t="shared" si="37"/>
-        <v>8.1908783783783701</v>
+        <v>0</v>
       </c>
       <c r="J233">
         <v>0</v>
@@ -18488,15 +18500,15 @@
       </c>
       <c r="R233">
         <f t="shared" si="39"/>
-        <v>2.73029279279279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A234" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C234" s="10">
         <v>3000</v>
@@ -18505,7 +18517,7 @@
         <v>332</v>
       </c>
       <c r="E234" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F234">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D234,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D234,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18513,15 +18525,15 @@
       </c>
       <c r="G234">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H234">
         <f>IF(ISNA(VLOOKUP(B234,Model!A:B,2,FALSE)),0,VLOOKUP(B234,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>8.1908783783783701</v>
       </c>
       <c r="I234" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>8.1908783783783701</v>
       </c>
       <c r="J234">
         <v>0</v>
@@ -18556,24 +18568,24 @@
       </c>
       <c r="R234">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2.73029279279279</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>411</v>
+        <v>219</v>
       </c>
       <c r="C235" s="10">
         <v>3000</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E235" s="10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D235,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D235,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18581,15 +18593,15 @@
       </c>
       <c r="G235">
         <f t="shared" si="36"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <f>IF(ISNA(VLOOKUP(B235,Model!A:B,2,FALSE)),0,VLOOKUP(B235,Model!A:B,2,FALSE))</f>
-        <v>10.0183486238532</v>
+        <v>0</v>
       </c>
       <c r="I235" s="4">
         <f t="shared" si="37"/>
-        <v>10.0183486238532</v>
+        <v>0</v>
       </c>
       <c r="J235">
         <v>0</v>
@@ -18624,24 +18636,24 @@
       </c>
       <c r="R235">
         <f t="shared" si="39"/>
-        <v>3.3394495412844001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A236" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C236" s="10">
         <v>3000</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E236" s="10">
-        <v>6.194</v>
+        <v>11</v>
       </c>
       <c r="F236">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D236,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D236,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18649,36 +18661,36 @@
       </c>
       <c r="G236">
         <f t="shared" si="36"/>
-        <v>6.194</v>
+        <v>11</v>
       </c>
       <c r="H236">
         <f>IF(ISNA(VLOOKUP(B236,Model!A:B,2,FALSE)),0,VLOOKUP(B236,Model!A:B,2,FALSE))</f>
-        <v>8.1350550105074202</v>
+        <v>10.0183486238532</v>
       </c>
       <c r="I236" s="4">
         <f t="shared" si="37"/>
-        <v>8.1350550105074202</v>
+        <v>10.0183486238532</v>
       </c>
       <c r="R236">
         <f t="shared" si="39"/>
-        <v>2.7116850035024731</v>
+        <v>3.3394495412844001</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>221</v>
+        <v>412</v>
       </c>
       <c r="C237" s="10">
         <v>3000</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E237" s="10">
-        <v>12.583</v>
+        <v>6.194</v>
       </c>
       <c r="F237">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D237,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D237,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18686,19 +18698,19 @@
       </c>
       <c r="G237">
         <f t="shared" si="36"/>
-        <v>12.583</v>
+        <v>6.194</v>
       </c>
       <c r="H237">
         <f>IF(ISNA(VLOOKUP(B237,Model!A:B,2,FALSE)),0,VLOOKUP(B237,Model!A:B,2,FALSE))</f>
-        <v>12.333921380053599</v>
+        <v>8.1350550105074202</v>
       </c>
       <c r="I237" s="4">
         <f t="shared" si="37"/>
-        <v>12.333921380053599</v>
+        <v>8.1350550105074202</v>
       </c>
       <c r="R237">
         <f t="shared" si="39"/>
-        <v>4.1113071266845331</v>
+        <v>2.7116850035024731</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.45">
@@ -18706,16 +18718,16 @@
         <v>5</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C238" s="10">
         <v>3000</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E238" s="10">
-        <v>-1</v>
+        <v>12.583</v>
       </c>
       <c r="F238">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D238,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D238,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18723,36 +18735,36 @@
       </c>
       <c r="G238">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>12.583</v>
       </c>
       <c r="H238">
         <f>IF(ISNA(VLOOKUP(B238,Model!A:B,2,FALSE)),0,VLOOKUP(B238,Model!A:B,2,FALSE))</f>
-        <v>-1</v>
+        <v>12.333921380053599</v>
       </c>
       <c r="I238" s="4">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>12.333921380053599</v>
       </c>
       <c r="R238">
         <f t="shared" si="39"/>
-        <v>-0.33333333333333331</v>
+        <v>4.1113071266845331</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>413</v>
+        <v>222</v>
       </c>
       <c r="C239" s="10">
         <v>3000</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E239" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F239">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D239,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D239,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18760,19 +18772,19 @@
       </c>
       <c r="G239">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H239">
         <f>IF(ISNA(VLOOKUP(B239,Model!A:B,2,FALSE)),0,VLOOKUP(B239,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I239" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R239">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.45">
@@ -18780,16 +18792,16 @@
         <v>9</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>71</v>
+        <v>413</v>
       </c>
       <c r="C240" s="10">
         <v>3000</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E240" s="10">
-        <v>1.3129999999999999</v>
+        <v>0</v>
       </c>
       <c r="F240">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D240,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D240,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18797,7 +18809,7 @@
       </c>
       <c r="G240">
         <f t="shared" si="36"/>
-        <v>1.3129999999999999</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <f>IF(ISNA(VLOOKUP(B240,Model!A:B,2,FALSE)),0,VLOOKUP(B240,Model!A:B,2,FALSE))</f>
@@ -18814,19 +18826,19 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A241" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>414</v>
+        <v>71</v>
       </c>
       <c r="C241" s="10">
         <v>3000</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E241" s="10">
-        <v>7.3250000000000002</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="F241">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D241,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D241,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18834,36 +18846,36 @@
       </c>
       <c r="G241">
         <f t="shared" si="36"/>
-        <v>7.3250000000000002</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="H241">
         <f>IF(ISNA(VLOOKUP(B241,Model!A:B,2,FALSE)),0,VLOOKUP(B241,Model!A:B,2,FALSE))</f>
-        <v>5.6501129182738303</v>
+        <v>0</v>
       </c>
       <c r="I241" s="4">
         <f t="shared" si="37"/>
-        <v>5.6501129182738303</v>
+        <v>0</v>
       </c>
       <c r="R241">
         <f t="shared" si="39"/>
-        <v>1.8833709727579435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A242" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="C242" s="10">
         <v>3000</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E242" s="10">
-        <v>0</v>
+        <v>7.3250000000000002</v>
       </c>
       <c r="F242">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D242,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D242,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18871,36 +18883,36 @@
       </c>
       <c r="G242">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>7.3250000000000002</v>
       </c>
       <c r="H242">
         <f>IF(ISNA(VLOOKUP(B242,Model!A:B,2,FALSE)),0,VLOOKUP(B242,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>5.6501129182738303</v>
       </c>
       <c r="I242" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5.6501129182738303</v>
       </c>
       <c r="R242">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1.8833709727579435</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="C243" s="10">
         <v>3000</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E243" s="10">
-        <v>12.833</v>
+        <v>0</v>
       </c>
       <c r="F243">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D243,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D243,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18908,36 +18920,36 @@
       </c>
       <c r="G243">
         <f t="shared" si="36"/>
-        <v>12.833</v>
+        <v>0</v>
       </c>
       <c r="H243">
         <f>IF(ISNA(VLOOKUP(B243,Model!A:B,2,FALSE)),0,VLOOKUP(B243,Model!A:B,2,FALSE))</f>
-        <v>13.4036697247706</v>
+        <v>0</v>
       </c>
       <c r="I243" s="4">
         <f t="shared" si="37"/>
-        <v>13.4036697247706</v>
+        <v>0</v>
       </c>
       <c r="R243">
         <f t="shared" si="39"/>
-        <v>4.4678899082568666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A244" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="C244" s="10">
         <v>3000</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E244" s="10">
-        <v>8.7249999999999996</v>
+        <v>12.833</v>
       </c>
       <c r="F244">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D244,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D244,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18945,36 +18957,36 @@
       </c>
       <c r="G244">
         <f t="shared" si="36"/>
-        <v>8.7249999999999996</v>
+        <v>12.833</v>
       </c>
       <c r="H244">
         <f>IF(ISNA(VLOOKUP(B244,Model!A:B,2,FALSE)),0,VLOOKUP(B244,Model!A:B,2,FALSE))</f>
-        <v>4.7510127970401204</v>
+        <v>13.4036697247706</v>
       </c>
       <c r="I244" s="4">
         <f t="shared" si="37"/>
-        <v>4.7510127970401204</v>
+        <v>13.4036697247706</v>
       </c>
       <c r="R244">
         <f t="shared" si="39"/>
-        <v>1.5836709323467066</v>
+        <v>4.4678899082568666</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A245" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>226</v>
+        <v>415</v>
       </c>
       <c r="C245" s="10">
         <v>3000</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E245" s="10">
-        <v>16.312999999999999</v>
+        <v>8.7249999999999996</v>
       </c>
       <c r="F245">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D245,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D245,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -18982,36 +18994,36 @@
       </c>
       <c r="G245">
         <f t="shared" si="36"/>
-        <v>16.312999999999999</v>
+        <v>8.7249999999999996</v>
       </c>
       <c r="H245">
         <f>IF(ISNA(VLOOKUP(B245,Model!A:B,2,FALSE)),0,VLOOKUP(B245,Model!A:B,2,FALSE))</f>
-        <v>19.248536705906101</v>
+        <v>4.7510127970401204</v>
       </c>
       <c r="I245" s="4">
         <f t="shared" si="37"/>
-        <v>19.248536705906101</v>
+        <v>4.7510127970401204</v>
       </c>
       <c r="R245">
         <f t="shared" si="39"/>
-        <v>6.4161789019687001</v>
+        <v>1.5836709323467066</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A246" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C246" s="10">
         <v>3000</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E246" s="10">
-        <v>5.7779999999999996</v>
+        <v>16.312999999999999</v>
       </c>
       <c r="F246">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D246,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D246,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19019,36 +19031,36 @@
       </c>
       <c r="G246">
         <f t="shared" si="36"/>
-        <v>5.7779999999999996</v>
+        <v>16.312999999999999</v>
       </c>
       <c r="H246">
         <f>IF(ISNA(VLOOKUP(B246,Model!A:B,2,FALSE)),0,VLOOKUP(B246,Model!A:B,2,FALSE))</f>
-        <v>10.1662524550288</v>
+        <v>19.248536705906101</v>
       </c>
       <c r="I246" s="4">
         <f t="shared" si="37"/>
-        <v>10.1662524550288</v>
+        <v>19.248536705906101</v>
       </c>
       <c r="R246">
         <f t="shared" si="39"/>
-        <v>3.3887508183429338</v>
+        <v>6.4161789019687001</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A247" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C247" s="10">
         <v>3000</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E247" s="10">
-        <v>1.5</v>
+        <v>5.7779999999999996</v>
       </c>
       <c r="F247">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D247,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D247,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19056,36 +19068,36 @@
       </c>
       <c r="G247">
         <f t="shared" si="36"/>
-        <v>1.5</v>
+        <v>5.7779999999999996</v>
       </c>
       <c r="H247">
         <f>IF(ISNA(VLOOKUP(B247,Model!A:B,2,FALSE)),0,VLOOKUP(B247,Model!A:B,2,FALSE))</f>
-        <v>1.5</v>
+        <v>10.1662524550288</v>
       </c>
       <c r="I247" s="4">
         <f t="shared" si="37"/>
-        <v>1.5</v>
+        <v>10.1662524550288</v>
       </c>
       <c r="R247">
         <f t="shared" si="39"/>
-        <v>0.5</v>
+        <v>3.3887508183429338</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A248" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C248" s="10">
         <v>3000</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E248" s="10">
-        <v>1.083</v>
+        <v>1.5</v>
       </c>
       <c r="F248">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D248,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D248,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19093,36 +19105,36 @@
       </c>
       <c r="G248">
         <f t="shared" si="36"/>
-        <v>1.083</v>
+        <v>1.5</v>
       </c>
       <c r="H248">
         <f>IF(ISNA(VLOOKUP(B248,Model!A:B,2,FALSE)),0,VLOOKUP(B248,Model!A:B,2,FALSE))</f>
-        <v>0.92889908256880704</v>
+        <v>1.5</v>
       </c>
       <c r="I248" s="4">
         <f t="shared" si="37"/>
-        <v>0.92889908256880704</v>
+        <v>1.5</v>
       </c>
       <c r="R248">
         <f t="shared" si="39"/>
-        <v>0.30963302752293564</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A249" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C249" s="10">
         <v>3000</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E249" s="10">
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="F249">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D249,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D249,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19130,27 +19142,27 @@
       </c>
       <c r="G249">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="H249">
         <f>IF(ISNA(VLOOKUP(B249,Model!A:B,2,FALSE)),0,VLOOKUP(B249,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>0.92889908256880704</v>
       </c>
       <c r="I249" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.92889908256880704</v>
       </c>
       <c r="R249">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.30963302752293564</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A250" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="C250" s="10">
         <v>3000</v>
@@ -19159,7 +19171,7 @@
         <v>334</v>
       </c>
       <c r="E250" s="10">
-        <v>7.6790000000000003</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D250,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D250,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19167,36 +19179,36 @@
       </c>
       <c r="G250">
         <f t="shared" si="36"/>
-        <v>7.6790000000000003</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <f>IF(ISNA(VLOOKUP(B250,Model!A:B,2,FALSE)),0,VLOOKUP(B250,Model!A:B,2,FALSE))</f>
-        <v>5.8269635291876503</v>
+        <v>0</v>
       </c>
       <c r="I250" s="4">
         <f t="shared" si="37"/>
-        <v>5.8269635291876503</v>
+        <v>0</v>
       </c>
       <c r="R250">
         <f t="shared" si="39"/>
-        <v>1.9423211763958834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>315</v>
+        <v>72</v>
       </c>
       <c r="C251" s="10">
         <v>3000</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E251" s="10">
-        <v>10.106999999999999</v>
+        <v>7.6790000000000003</v>
       </c>
       <c r="F251">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D251,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D251,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19204,36 +19216,36 @@
       </c>
       <c r="G251">
         <f t="shared" si="36"/>
-        <v>10.106999999999999</v>
+        <v>7.6790000000000003</v>
       </c>
       <c r="H251">
         <f>IF(ISNA(VLOOKUP(B251,Model!A:B,2,FALSE)),0,VLOOKUP(B251,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>5.8269635291876503</v>
       </c>
       <c r="I251" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5.8269635291876503</v>
       </c>
       <c r="R251">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1.9423211763958834</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A252" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="C252" s="10">
         <v>3000</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E252" s="10">
-        <v>11</v>
+        <v>10.106999999999999</v>
       </c>
       <c r="F252">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D252,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D252,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19241,36 +19253,36 @@
       </c>
       <c r="G252">
         <f t="shared" si="36"/>
-        <v>11</v>
+        <v>10.106999999999999</v>
       </c>
       <c r="H252">
         <f>IF(ISNA(VLOOKUP(B252,Model!A:B,2,FALSE)),0,VLOOKUP(B252,Model!A:B,2,FALSE))</f>
-        <v>7.1932388457617797</v>
+        <v>0</v>
       </c>
       <c r="I252" s="4">
         <f t="shared" si="37"/>
-        <v>7.1932388457617797</v>
+        <v>0</v>
       </c>
       <c r="R252">
         <f t="shared" si="39"/>
-        <v>2.3977462819205932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A253" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="C253" s="10">
         <v>3000</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E253" s="10">
-        <v>7.2809999999999997</v>
+        <v>11</v>
       </c>
       <c r="F253">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D253,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D253,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19278,19 +19290,19 @@
       </c>
       <c r="G253">
         <f t="shared" si="36"/>
-        <v>7.2809999999999997</v>
+        <v>11</v>
       </c>
       <c r="H253">
         <f>IF(ISNA(VLOOKUP(B253,Model!A:B,2,FALSE)),0,VLOOKUP(B253,Model!A:B,2,FALSE))</f>
-        <v>10.6039038356763</v>
+        <v>7.1932388457617797</v>
       </c>
       <c r="I253" s="4">
         <f t="shared" si="37"/>
-        <v>10.6039038356763</v>
+        <v>7.1932388457617797</v>
       </c>
       <c r="R253">
         <f t="shared" si="39"/>
-        <v>3.5346346118921002</v>
+        <v>2.3977462819205932</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.45">
@@ -19298,16 +19310,16 @@
         <v>6</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="C254" s="10">
         <v>3000</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E254" s="10">
-        <v>0</v>
+        <v>7.2809999999999997</v>
       </c>
       <c r="F254">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D254,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D254,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19315,33 +19327,33 @@
       </c>
       <c r="G254">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>7.2809999999999997</v>
       </c>
       <c r="H254">
         <f>IF(ISNA(VLOOKUP(B254,Model!A:B,2,FALSE)),0,VLOOKUP(B254,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>10.6039038356763</v>
       </c>
       <c r="I254" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>10.6039038356763</v>
       </c>
       <c r="R254">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>3.5346346118921002</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>233</v>
+        <v>416</v>
       </c>
       <c r="C255" s="10">
         <v>3000</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E255" s="10">
         <v>0</v>
@@ -19369,19 +19381,19 @@
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A256" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>417</v>
+        <v>233</v>
       </c>
       <c r="C256" s="10">
         <v>3000</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E256" s="10">
-        <v>2.375</v>
+        <v>0</v>
       </c>
       <c r="F256">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D256,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D256,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19389,19 +19401,19 @@
       </c>
       <c r="G256">
         <f t="shared" si="36"/>
-        <v>2.375</v>
+        <v>0</v>
       </c>
       <c r="H256">
         <f>IF(ISNA(VLOOKUP(B256,Model!A:B,2,FALSE)),0,VLOOKUP(B256,Model!A:B,2,FALSE))</f>
-        <v>2.3474099099099099</v>
+        <v>0</v>
       </c>
       <c r="I256" s="4">
         <f t="shared" si="37"/>
-        <v>2.3474099099099099</v>
+        <v>0</v>
       </c>
       <c r="R256">
         <f t="shared" si="39"/>
-        <v>0.78246996996996998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.45">
@@ -19409,16 +19421,16 @@
         <v>9</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C257" s="10">
         <v>3000</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E257" s="10">
-        <v>0</v>
+        <v>2.375</v>
       </c>
       <c r="F257">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D257,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D257,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19426,36 +19438,36 @@
       </c>
       <c r="G257">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.375</v>
       </c>
       <c r="H257">
         <f>IF(ISNA(VLOOKUP(B257,Model!A:B,2,FALSE)),0,VLOOKUP(B257,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>2.3474099099099099</v>
       </c>
       <c r="I257" s="4">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2.3474099099099099</v>
       </c>
       <c r="R257">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.78246996996996998</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A258" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="C258" s="10">
         <v>3000</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E258" s="10">
-        <v>8.125</v>
+        <v>0</v>
       </c>
       <c r="F258">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D258,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D258,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19463,19 +19475,19 @@
       </c>
       <c r="G258">
         <f t="shared" si="36"/>
-        <v>8.125</v>
+        <v>0</v>
       </c>
       <c r="H258">
         <f>IF(ISNA(VLOOKUP(B258,Model!A:B,2,FALSE)),0,VLOOKUP(B258,Model!A:B,2,FALSE))</f>
-        <v>6.3029279279279198</v>
+        <v>0</v>
       </c>
       <c r="I258" s="4">
         <f t="shared" si="37"/>
-        <v>6.3029279279279198</v>
+        <v>0</v>
       </c>
       <c r="R258">
         <f t="shared" si="39"/>
-        <v>2.1009759759759734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.45">
@@ -19483,7 +19495,7 @@
         <v>8</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C259" s="10">
         <v>3000</v>
@@ -19492,7 +19504,7 @@
         <v>333</v>
       </c>
       <c r="E259" s="10">
-        <v>0</v>
+        <v>8.125</v>
       </c>
       <c r="F259">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D259,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D259,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19500,27 +19512,27 @@
       </c>
       <c r="G259">
         <f t="shared" ref="G259:G279" si="43">E259*F259</f>
-        <v>0</v>
+        <v>8.125</v>
       </c>
       <c r="H259">
         <f>IF(ISNA(VLOOKUP(B259,Model!A:B,2,FALSE)),0,VLOOKUP(B259,Model!A:B,2,FALSE))</f>
-        <v>0</v>
+        <v>6.3029279279279198</v>
       </c>
       <c r="I259" s="4">
         <f t="shared" ref="I259:I279" si="44">IF(ISNA(VLOOKUP(B259,$Y$2:$Z$12,2,FALSE)),H259,VLOOKUP(B259,$Y$2:$Z$12,2,FALSE))</f>
-        <v>0</v>
+        <v>6.3029279279279198</v>
       </c>
       <c r="R259">
         <f t="shared" ref="R259:R279" si="45">I259/C259*1000</f>
-        <v>0</v>
+        <v>2.1009759759759734</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A260" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="C260" s="10">
         <v>3000</v>
@@ -19529,7 +19541,7 @@
         <v>333</v>
       </c>
       <c r="E260" s="10">
-        <v>22.178999999999998</v>
+        <v>0</v>
       </c>
       <c r="F260">
         <f>IF(ISNA(VLOOKUP(DKSalaries!D260,OverUnder!$A$2:$C$13,3,FALSE)),1,VLOOKUP(DKSalaries!D260,OverUnder!$A$2:$C$13,3,FALSE))</f>
@@ -19537,19 +19549,19 @@
       </c>
       <c r="G260">
         <f t="shared" si="43"/>
-        <v>22.178999999999998</v>
+        <v>0</v>
       </c>
       <c r="H260">
         <f>IF(ISNA(VLOOKUP(B260,Model!A:B,2,FALSE)),0,VLOOKUP(B260,Model!A:B,2,FALSE))</f>
-        <v>19.119194197081299</v>
+        <v>0</v>
       </c>
       <c r="I260" s="4">
         <f t="shared" si="44"/>
-        <v>19.119194197081299</v>
+        <v>0</v>
       </c>
       <c r="R260">
         <f t="shared" si="45"/>
-        <v>6.373064732360433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.45">
